--- a/analysis/behavior/stats/raw/supp_figure1.xlsx
+++ b/analysis/behavior/stats/raw/supp_figure1.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="a_cumm_train_anova_g" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="a_cumm_train_posthoc_g" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="b_cumm_train_anova_f" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="b_cumm_train_posthoc_f" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="b_train_model_g" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="b_train_anova_g" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="c_cumm_train_anova_g" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="c_cumm_train_posthoc_g" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,163 +439,354 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Estimate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>Std. Error</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DF1</t>
+          <t>df</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DF2</t>
+          <t>t value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Pr(&gt;|t|)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>p-value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>np2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>eps</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>Significance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Chr2</t>
-        </is>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>378.4000000000052</v>
       </c>
       <c r="C2" t="n">
-        <v>65796318.03620689</v>
+        <v>151.5229216805847</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>46.39003342018047</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>2.497311930122921</v>
       </c>
       <c r="F2" t="n">
-        <v>65796318.03620689</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.05845837651055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0008553937448967596</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3424010284943714</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>***</t>
+        <v>0.01612272350552087</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CS</t>
-        </is>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>355.6666666666679</v>
       </c>
       <c r="C3" t="n">
-        <v>13858262.08620689</v>
+        <v>116.1909578452945</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>135.0000011547952</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>3.061052884513006</v>
       </c>
       <c r="F3" t="n">
-        <v>13858262.08620689</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45.37633232272344</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.118575522624154e-07</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6269498725134622</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+        <v>0.002661852314219884</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>366.0000000000011</v>
+      </c>
+      <c r="C4" t="n">
+        <v>116.1909578452945</v>
+      </c>
+      <c r="D4" t="n">
+        <v>135.0000011528521</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.149986942076177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.002010940372709516</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>factor(CS)+</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>534.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>116.1909578452945</v>
+      </c>
+      <c r="D5" t="n">
+        <v>135.0000011657909</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.59932519629919</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.648775347667073e-06</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>****</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Interaction</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>218.9399835467339</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27</v>
-      </c>
-      <c r="F4" t="n">
-        <v>218.9399835467339</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0007168787392205683</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9788364374434214</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.655035947527192e-05</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>456.3857142857106</v>
+      </c>
+      <c r="C6" t="n">
+        <v>218.07873382336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.39003344169444</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.092756621814281</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.041868184731844</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)1:factor(CS)+</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-272.9333333333333</v>
+      </c>
+      <c r="C7" t="n">
+        <v>164.3188284099361</v>
+      </c>
+      <c r="D7" t="n">
+        <v>135.0000011543003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.660998535435209</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09903446879534161</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)2:factor(CS)+</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-356.3999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>164.3188284099361</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.0000011492513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.168954120771038</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.03183788706181354</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)1:factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>356.1190476190447</v>
+      </c>
+      <c r="C9" t="n">
+        <v>167.2273520572695</v>
+      </c>
+      <c r="D9" t="n">
+        <v>135.0000011582609</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.129550239467324</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03502341056195662</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)2:factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>402.2857142857114</v>
+      </c>
+      <c r="C10" t="n">
+        <v>167.2273520572695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>135.0000011551052</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.405621504716183</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01749982938238237</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>factor(CS)+:factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71.67142857142858</v>
+      </c>
+      <c r="C11" t="n">
+        <v>167.2273520572694</v>
+      </c>
+      <c r="D11" t="n">
+        <v>135.000001156475</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4285867574275988</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6689070507625686</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)1:factor(CS)+:factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-296.4952380952381</v>
+      </c>
+      <c r="C12" t="n">
+        <v>236.4951892791308</v>
+      </c>
+      <c r="D12" t="n">
+        <v>135.0000011527177</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.253705155690462</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2121159303993243</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>factor(day)2:factor(CS)+:factor(Chr2)TRUE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>89.25714285714294</v>
+      </c>
+      <c r="C13" t="n">
+        <v>236.4951892791307</v>
+      </c>
+      <c r="D13" t="n">
+        <v>135.0000011442684</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3774163150176998</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7064569179467435</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>ns</t>
         </is>
@@ -612,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,30 +814,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Sum Sq</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>Mean Sq</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Corrected p-value</t>
+          <t>NumDF</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>df</t>
+          <t>DenDF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>paired</t>
+          <t>F value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;F)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Significance</t>
         </is>
@@ -655,108 +851,210 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
+          <t>factor(day)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.408576114802189</v>
+        <v>5432280.262068967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007064176434354579</v>
+        <v>2716140.131034484</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001412336260983959</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>**</t>
+        <v>135.0000011366082</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26.82540237849418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.550849534346067e-10</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>factor(CS)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.164124554987596</v>
+        <v>4615193.930192173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001437224123243966</v>
+        <v>4615193.930192173</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0005747657243813301</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>***</t>
+        <v>135.0000011931352</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45.58101874701002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.964061552860945e-10</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
+          <t>factor(Chr2)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.125205435820432</v>
+        <v>1423454.378998221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004928210060479141</v>
+        <v>1423454.378998221</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004928210060479141</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>**</t>
+        <v>26.99999683719165</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.05845598603692</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.000855394577899418</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>factor(day):factor(CS)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.311860341140109</v>
+        <v>1383418.507279693</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003140529032065948</v>
+        <v>691709.2536398466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009418628529165416</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>***</t>
+        <v>135.0000011578124</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.831524944462154</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0014921905551178</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>factor(day):factor(Chr2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1448683.296551707</v>
+      </c>
+      <c r="C6" t="n">
+        <v>724341.6482758537</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>135.0000011440987</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.153812114657348</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001114282681427205</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>factor(CS):factor(Chr2)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72.98038351535301</v>
+      </c>
+      <c r="C7" t="n">
+        <v>72.98038351535301</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>135.0000011591572</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0007207758285985552</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9786211976835149</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>factor(day):factor(CS):factor(Chr2)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>295304.8521072796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>147652.4260536398</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>135.0000011487047</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.458258981483846</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2362817706739371</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -841,7 +1139,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88481746.15180622</v>
+        <v>65796318.03620689</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -850,21 +1148,21 @@
         <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>88481746.15180622</v>
+        <v>65796318.03620689</v>
       </c>
       <c r="G2" t="n">
-        <v>36.04293091262561</v>
+        <v>14.05845837651055</v>
       </c>
       <c r="H2" t="n">
-        <v>2.09580630515392e-06</v>
+        <v>0.0008553937448967596</v>
       </c>
       <c r="I2" t="n">
-        <v>0.571720419575342</v>
+        <v>0.3424010284943714</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -878,7 +1176,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11853248.27586207</v>
+        <v>13858262.08620689</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -887,16 +1185,16 @@
         <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>11853248.27586207</v>
+        <v>13858262.08620689</v>
       </c>
       <c r="G3" t="n">
-        <v>35.85389041965866</v>
+        <v>45.37633232272344</v>
       </c>
       <c r="H3" t="n">
-        <v>2.184716038109522e-06</v>
+        <v>3.118575522624154e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5704323181949725</v>
+        <v>0.6269498725134622</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -917,7 +1215,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4378341.793185562</v>
+        <v>218.9399835467339</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -926,21 +1224,21 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>4378341.793185562</v>
+        <v>218.9399835467339</v>
       </c>
       <c r="G4" t="n">
-        <v>13.24367660402102</v>
+        <v>0.0007168787392205683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001140043158350896</v>
+        <v>0.9788364374434214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3290871441576427</v>
+        <v>2.655035947527192e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -998,17 +1296,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai32</t>
+          <t>CS+ vs. CS- $AgRP^{Chr2}$</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.379633847834325</v>
+        <v>4.408576114802189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001254447479671013</v>
+        <v>0.0007064176434354579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002508737595494099</v>
+        <v>0.001412336260983959</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -1018,24 +1316,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS+ vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.636659189366435</v>
+        <v>5.164124554987596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01953110593931739</v>
+        <v>0.0001437224123243966</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01953110593931739</v>
+        <v>0.0005747657243813301</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -1045,24 +1343,24 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS+ $AgRP^{Cre}$::Ai32 vs. CS+ $AgRP^{Cre}$::Ai9</t>
+          <t>CS+ $AgRP^{Chr2}$ vs. CS+ $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.909480102582233</v>
+        <v>3.125205435820432</v>
       </c>
       <c r="C4" t="n">
-        <v>3.878284892881673e-06</v>
+        <v>0.004928210060479141</v>
       </c>
       <c r="D4" t="n">
-        <v>1.551304932519776e-05</v>
+        <v>0.004928210060479141</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
@@ -1072,24 +1370,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CS- $AgRP^{Cre}$::Ai32 vs. CS- $AgRP^{Cre}$::Ai9</t>
+          <t>CS- $AgRP^{Chr2}$ vs. CS- $AgRP^{TdTomato}$</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.313761638035392</v>
+        <v>4.311860341140109</v>
       </c>
       <c r="C5" t="n">
-        <v>2.058647120896896e-05</v>
+        <v>0.0003140529032065948</v>
       </c>
       <c r="D5" t="n">
-        <v>6.175814222724099e-05</v>
+        <v>0.0009418628529165416</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
@@ -1099,7 +1397,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>***</t>
         </is>
       </c>
     </row>
